--- a/REGULAR/CTO/BAYOT, ANISIA.xlsx
+++ b/REGULAR/CTO/BAYOT, ANISIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="390">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1218,6 +1218,12 @@
   </si>
   <si>
     <t>UT(0-2-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
   </si>
 </sst>
 </file>
@@ -1918,8 +1924,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K572"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K574" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K574"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2248,12 +2254,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K572"/>
+  <dimension ref="A2:K574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A499" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A496" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E507" sqref="E507"/>
+      <selection pane="bottomLeft" activeCell="F504" sqref="F503:F504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2426,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.192000000000121</v>
+        <v>61.0270000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13676,11 +13682,15 @@
       <c r="A502" s="40">
         <v>44652</v>
       </c>
-      <c r="B502" s="20"/>
+      <c r="B502" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="C502" s="13">
         <v>1.25</v>
       </c>
-      <c r="D502" s="39"/>
+      <c r="D502" s="39">
+        <v>1</v>
+      </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
       <c r="G502" s="13">
@@ -13690,48 +13700,46 @@
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="20"/>
+      <c r="K502" s="48">
+        <v>44664</v>
+      </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C503" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D503" s="39"/>
+        <v>389</v>
+      </c>
+      <c r="C503" s="13"/>
+      <c r="D503" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H503" s="39">
-        <v>1</v>
-      </c>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K503" s="48"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C504" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C504" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D504" s="39"/>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G504" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H504" s="39">
         <v>1</v>
@@ -13739,97 +13747,95 @@
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
       <c r="K504" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C505" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D505" s="39"/>
+        <v>388</v>
+      </c>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40"/>
+      <c r="A506" s="40">
+        <v>44713</v>
+      </c>
       <c r="B506" s="20" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="C506" s="13"/>
-      <c r="D506" s="39">
-        <v>1</v>
-      </c>
+      <c r="D506" s="39"/>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
       <c r="G506" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H506" s="39"/>
+      <c r="H506" s="39">
+        <v>1</v>
+      </c>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="48">
-        <v>44739</v>
+      <c r="K506" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C507" s="13"/>
-      <c r="D507" s="39">
-        <v>0.25800000000000001</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C507" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G507" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="48"/>
+      <c r="K507" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C508" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C508" s="13"/>
       <c r="D508" s="39">
         <v>1</v>
       </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="48">
-        <v>44755</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
@@ -13850,92 +13856,92 @@
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
+      <c r="K509" s="48"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="C510" s="13">
         <v>1.25</v>
       </c>
-      <c r="D510" s="39"/>
+      <c r="D510" s="39">
+        <v>1</v>
+      </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
       <c r="G510" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H510" s="39">
-        <v>1</v>
-      </c>
+      <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20" t="s">
-        <v>84</v>
+      <c r="K510" s="48">
+        <v>44755</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="C511" s="13"/>
-      <c r="D511" s="39"/>
+      <c r="D511" s="39">
+        <v>0.25800000000000001</v>
+      </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
       <c r="G511" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H511" s="39">
-        <v>2</v>
-      </c>
+      <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K511" s="20"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="40"/>
+      <c r="A512" s="40">
+        <v>44774</v>
+      </c>
       <c r="B512" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C512" s="13"/>
-      <c r="D512" s="39">
-        <v>0.10800000000000001</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H512" s="39"/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H512" s="39">
+        <v>1</v>
+      </c>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
+      <c r="K512" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A513" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C513" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C513" s="13"/>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H513" s="39">
         <v>2</v>
@@ -13943,17 +13949,17 @@
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C514" s="13"/>
       <c r="D514" s="39">
-        <v>5.4000000000000013E-2</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
@@ -13968,10 +13974,10 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B515" s="20" t="s">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="C515" s="13">
         <v>1.25</v>
@@ -13983,21 +13989,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H515" s="39"/>
+      <c r="H515" s="39">
+        <v>2</v>
+      </c>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="20" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
@@ -14012,10 +14020,10 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B517" s="20" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="C517" s="13">
         <v>1.25</v>
@@ -14027,91 +14035,89 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H517" s="39">
-        <v>1</v>
-      </c>
+      <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="48">
-        <v>44872</v>
+      <c r="K517" s="20" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="C518" s="13"/>
-      <c r="D518" s="39"/>
+      <c r="D518" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
       <c r="G518" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H518" s="39">
-        <v>1</v>
-      </c>
+      <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="48">
-        <v>44894</v>
-      </c>
+      <c r="K518" s="20"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A519" s="40"/>
+      <c r="A519" s="40">
+        <v>44866</v>
+      </c>
       <c r="B519" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C519" s="13"/>
-      <c r="D519" s="39">
-        <v>0.04</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D519" s="39"/>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H519" s="39"/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H519" s="39">
+        <v>1</v>
+      </c>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="48"/>
+      <c r="K519" s="48">
+        <v>44872</v>
+      </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A520" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C520" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D520" s="39">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C520" s="13"/>
+      <c r="D520" s="39"/>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H520" s="39"/>
+      <c r="G520" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="39">
+        <v>1</v>
+      </c>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20" t="s">
-        <v>88</v>
+      <c r="K520" s="48">
+        <v>44894</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
@@ -14122,38 +14128,42 @@
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="48">
-        <v>44924</v>
-      </c>
+      <c r="K521" s="48"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40"/>
+      <c r="A522" s="40">
+        <v>44896</v>
+      </c>
       <c r="B522" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39">
         <v>2</v>
       </c>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39">
-        <v>0.127</v>
+        <v>1</v>
       </c>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
@@ -14164,15 +14174,19 @@
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20"/>
+      <c r="K523" s="48">
+        <v>44924</v>
+      </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B524" s="20"/>
+      <c r="A524" s="40"/>
+      <c r="B524" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C524" s="13"/>
-      <c r="D524" s="39"/>
+      <c r="D524" s="39">
+        <v>2</v>
+      </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
       <c r="G524" s="13" t="str">
@@ -14185,19 +14199,19 @@
       <c r="K524" s="20"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B525" s="20"/>
-      <c r="C525" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D525" s="39"/>
+      <c r="A525" s="40"/>
+      <c r="B525" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39">
+        <v>0.127</v>
+      </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
@@ -14205,38 +14219,28 @@
       <c r="K525" s="20"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B526" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C526" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A526" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H526" s="39">
-        <v>2</v>
-      </c>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B527" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B527" s="20"/>
       <c r="C527" s="13">
         <v>1.25</v>
       </c>
@@ -14247,40 +14251,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H527" s="39">
-        <v>1</v>
-      </c>
+      <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="48">
-        <v>45005</v>
-      </c>
+      <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="40"/>
+      <c r="A528" s="40">
+        <v>44958</v>
+      </c>
       <c r="B528" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C528" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="48">
-        <v>45009</v>
+      <c r="K528" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B529" s="20" t="s">
         <v>47</v>
@@ -14301,7 +14305,7 @@
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
       <c r="K529" s="48">
-        <v>45016</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
@@ -14323,12 +14327,12 @@
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="48">
-        <v>45027</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B531" s="20" t="s">
         <v>47</v>
@@ -14349,13 +14353,13 @@
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="48">
-        <v>45048</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C532" s="13"/>
       <c r="D532" s="39"/>
@@ -14366,26 +14370,30 @@
         <v/>
       </c>
       <c r="H532" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="48" t="s">
-        <v>375</v>
+      <c r="K532" s="48">
+        <v>45027</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40"/>
+      <c r="A533" s="40">
+        <v>45047</v>
+      </c>
       <c r="B533" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C533" s="13"/>
+      <c r="C533" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G533" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H533" s="39">
         <v>1</v>
@@ -14393,41 +14401,35 @@
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
       <c r="K533" s="48">
-        <v>45072</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C534" s="13">
-        <v>1.25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C534" s="13"/>
       <c r="D534" s="39"/>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H534" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="48">
-        <v>45096</v>
+      <c r="K534" s="48" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="C535" s="13"/>
       <c r="D535" s="39"/>
@@ -14443,33 +14445,41 @@
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="48">
-        <v>45110</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="40"/>
+      <c r="A536" s="40">
+        <v>45078</v>
+      </c>
       <c r="B536" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C536" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H536" s="39"/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H536" s="39">
+        <v>1</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="48">
-        <v>45126</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40"/>
+      <c r="A537" s="40">
+        <v>45108</v>
+      </c>
       <c r="B537" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
@@ -14479,18 +14489,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H537" s="39"/>
+      <c r="H537" s="39">
+        <v>1</v>
+      </c>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
       <c r="K537" s="48">
-        <v>45131</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B538" s="20"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="C538" s="13"/>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
@@ -14502,13 +14514,15 @@
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="48">
+        <v>45126</v>
+      </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B539" s="20"/>
+      <c r="A539" s="40"/>
+      <c r="B539" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="C539" s="13"/>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
@@ -14520,11 +14534,13 @@
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="48">
+        <v>45131</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14542,7 +14558,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14560,7 +14576,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14578,7 +14594,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14596,7 +14612,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14614,7 +14630,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14632,7 +14648,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14650,7 +14666,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14668,7 +14684,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14686,7 +14702,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14704,7 +14720,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14722,7 +14738,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14740,7 +14756,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14758,7 +14774,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14776,7 +14792,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -14794,7 +14810,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14812,7 +14828,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -14830,7 +14846,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -14848,7 +14864,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -14866,7 +14882,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -14884,7 +14900,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -14902,7 +14918,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -14920,7 +14936,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14938,7 +14954,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14956,7 +14972,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14974,7 +14990,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14992,7 +15008,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15009,7 +15025,9 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40"/>
+      <c r="A567" s="40">
+        <v>45962</v>
+      </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
@@ -15025,7 +15043,9 @@
       <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <v>45992</v>
+      </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -15089,20 +15109,52 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="41"/>
-      <c r="B572" s="15"/>
-      <c r="C572" s="42"/>
-      <c r="D572" s="43"/>
+      <c r="A572" s="40"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
       <c r="E572" s="9"/>
-      <c r="F572" s="15"/>
+      <c r="F572" s="20"/>
       <c r="G572" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H572" s="43"/>
+      <c r="H572" s="39"/>
       <c r="I572" s="9"/>
-      <c r="J572" s="12"/>
-      <c r="K572" s="15"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="40"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="41"/>
+      <c r="B574" s="15"/>
+      <c r="C574" s="42"/>
+      <c r="D574" s="43"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="15"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="43"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="12"/>
+      <c r="K574" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15213,14 +15265,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25800000000000001</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>

--- a/REGULAR/CTO/BAYOT, ANISIA.xlsx
+++ b/REGULAR/CTO/BAYOT, ANISIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="396">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1224,6 +1224,24 @@
   </si>
   <si>
     <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/18,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>SL(6-0-0)</t>
+  </si>
+  <si>
+    <t>9/15, 18-22/2023</t>
   </si>
 </sst>
 </file>
@@ -1924,8 +1942,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K574" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K574"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K577" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K577"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2254,12 +2272,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K574"/>
+  <dimension ref="A2:K577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A496" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A535" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F504" sqref="F503:F504"/>
+      <selection pane="bottomLeft" activeCell="I544" sqref="I544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,7 +2444,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.0270000000001</v>
+        <v>62.623000000000104</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2436,7 +2454,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.70799999999997</v>
+        <v>91.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13675,43 +13693,39 @@
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="48">
-        <v>44837</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C502" s="13">
-        <v>1.25</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C502" s="13"/>
       <c r="D502" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="48">
-        <v>44664</v>
+      <c r="K502" s="48" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39">
-        <v>4.8000000000000008E-2</v>
+        <v>0.15400000000000003</v>
       </c>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
@@ -13726,38 +13740,38 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="C504" s="13">
         <v>1.25</v>
       </c>
-      <c r="D504" s="39"/>
+      <c r="D504" s="39">
+        <v>1</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
       <c r="G504" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H504" s="39">
-        <v>1</v>
-      </c>
+      <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20" t="s">
-        <v>82</v>
+      <c r="K504" s="48">
+        <v>44664</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C505" s="13"/>
       <c r="D505" s="39">
-        <v>0.11700000000000001</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
@@ -13768,22 +13782,26 @@
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="48"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C506" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C506" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
-      <c r="F506" s="20"/>
-      <c r="G506" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="F506" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="G506" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H506" s="39">
         <v>1</v>
@@ -13791,97 +13809,95 @@
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
       <c r="K506" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C507" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D507" s="39"/>
+        <v>388</v>
+      </c>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40"/>
+      <c r="A508" s="40">
+        <v>44713</v>
+      </c>
       <c r="B508" s="20" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="C508" s="13"/>
-      <c r="D508" s="39">
-        <v>1</v>
-      </c>
+      <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H508" s="39"/>
+      <c r="H508" s="39">
+        <v>1</v>
+      </c>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="48">
-        <v>44739</v>
+      <c r="K508" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C509" s="13"/>
-      <c r="D509" s="39">
-        <v>0.25800000000000001</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="48"/>
+      <c r="K509" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C510" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C510" s="13"/>
       <c r="D510" s="39">
         <v>1</v>
       </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
       <c r="K510" s="48">
-        <v>44755</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
@@ -13902,92 +13918,92 @@
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="48"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B512" s="20" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="C512" s="13">
         <v>1.25</v>
       </c>
-      <c r="D512" s="39"/>
+      <c r="D512" s="39">
+        <v>1</v>
+      </c>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H512" s="39">
-        <v>1</v>
-      </c>
+      <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20" t="s">
-        <v>84</v>
+      <c r="K512" s="48">
+        <v>44755</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="C513" s="13"/>
-      <c r="D513" s="39"/>
+      <c r="D513" s="39">
+        <v>0.25800000000000001</v>
+      </c>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
       <c r="G513" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H513" s="39">
-        <v>2</v>
-      </c>
+      <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K513" s="20"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="40"/>
+      <c r="A514" s="40">
+        <v>44774</v>
+      </c>
       <c r="B514" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C514" s="13"/>
-      <c r="D514" s="39">
-        <v>0.10800000000000001</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H514" s="39"/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H514" s="39">
+        <v>1</v>
+      </c>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="20"/>
+      <c r="K514" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C515" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C515" s="13"/>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H515" s="39">
         <v>2</v>
@@ -13995,17 +14011,17 @@
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39">
-        <v>5.4000000000000013E-2</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
@@ -14020,10 +14036,10 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B517" s="20" t="s">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="C517" s="13">
         <v>1.25</v>
@@ -14035,21 +14051,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H517" s="39"/>
+      <c r="H517" s="39">
+        <v>2</v>
+      </c>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C518" s="13"/>
       <c r="D518" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
@@ -14064,10 +14082,10 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B519" s="20" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="C519" s="13">
         <v>1.25</v>
@@ -14079,91 +14097,89 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H519" s="39">
-        <v>1</v>
-      </c>
+      <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="48">
-        <v>44872</v>
+      <c r="K519" s="20" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="C520" s="13"/>
-      <c r="D520" s="39"/>
+      <c r="D520" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
       <c r="G520" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H520" s="39">
-        <v>1</v>
-      </c>
+      <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="48">
-        <v>44894</v>
-      </c>
+      <c r="K520" s="20"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40"/>
+      <c r="A521" s="40">
+        <v>44866</v>
+      </c>
       <c r="B521" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C521" s="13"/>
-      <c r="D521" s="39">
-        <v>0.04</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H521" s="39"/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H521" s="39">
+        <v>1</v>
+      </c>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="48"/>
+      <c r="K521" s="48">
+        <v>44872</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C522" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D522" s="39">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H522" s="39"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39">
+        <v>1</v>
+      </c>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20" t="s">
-        <v>88</v>
+      <c r="K522" s="48">
+        <v>44894</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
@@ -14174,38 +14190,42 @@
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="48">
-        <v>44924</v>
-      </c>
+      <c r="K523" s="48"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40"/>
+      <c r="A524" s="40">
+        <v>44896</v>
+      </c>
       <c r="B524" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39">
         <v>2</v>
       </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
+      <c r="K524" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39">
-        <v>0.127</v>
+        <v>1</v>
       </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
@@ -14216,15 +14236,19 @@
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="48">
+        <v>44924</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B526" s="20"/>
+      <c r="A526" s="40"/>
+      <c r="B526" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C526" s="13"/>
-      <c r="D526" s="39"/>
+      <c r="D526" s="39">
+        <v>2</v>
+      </c>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
       <c r="G526" s="13" t="str">
@@ -14237,19 +14261,19 @@
       <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B527" s="20"/>
-      <c r="C527" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D527" s="39"/>
+      <c r="A527" s="40"/>
+      <c r="B527" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39">
+        <v>0.127</v>
+      </c>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
@@ -14257,38 +14281,28 @@
       <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B528" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C528" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A528" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H528" s="39">
-        <v>2</v>
-      </c>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B529" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B529" s="20"/>
       <c r="C529" s="13">
         <v>1.25</v>
       </c>
@@ -14299,40 +14313,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H529" s="39">
-        <v>1</v>
-      </c>
+      <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="48">
-        <v>45005</v>
-      </c>
+      <c r="K529" s="20"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40"/>
+      <c r="A530" s="40">
+        <v>44958</v>
+      </c>
       <c r="B530" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C530" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H530" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="48">
-        <v>45009</v>
+      <c r="K530" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B531" s="20" t="s">
         <v>47</v>
@@ -14353,7 +14367,7 @@
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="48">
-        <v>45016</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
@@ -14375,12 +14389,12 @@
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
       <c r="K532" s="48">
-        <v>45027</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B533" s="20" t="s">
         <v>47</v>
@@ -14401,13 +14415,13 @@
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
       <c r="K533" s="48">
-        <v>45048</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
@@ -14418,26 +14432,30 @@
         <v/>
       </c>
       <c r="H534" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="48" t="s">
-        <v>375</v>
+      <c r="K534" s="48">
+        <v>45027</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+      <c r="A535" s="40">
+        <v>45047</v>
+      </c>
       <c r="B535" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C535" s="13"/>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G535" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H535" s="39">
         <v>1</v>
@@ -14445,41 +14463,35 @@
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="48">
-        <v>45072</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C536" s="13">
-        <v>1.25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C536" s="13"/>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H536" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="48">
-        <v>45096</v>
+      <c r="K536" s="48" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
@@ -14495,54 +14507,66 @@
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
       <c r="K537" s="48">
-        <v>45110</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40"/>
+      <c r="A538" s="40">
+        <v>45078</v>
+      </c>
       <c r="B538" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C538" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H538" s="39"/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H538" s="39">
+        <v>1</v>
+      </c>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
       <c r="K538" s="48">
-        <v>45126</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40"/>
+      <c r="A539" s="40">
+        <v>45108</v>
+      </c>
       <c r="B539" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C539" s="13"/>
+        <v>376</v>
+      </c>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H539" s="39"/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H539" s="39">
+        <v>1</v>
+      </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
       <c r="K539" s="48">
-        <v>45131</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B540" s="20"/>
+      <c r="A540" s="40"/>
+      <c r="B540" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
@@ -14554,13 +14578,15 @@
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="48">
+        <v>45126</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B541" s="20"/>
+      <c r="A541" s="40"/>
+      <c r="B541" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="C541" s="13"/>
       <c r="D541" s="39"/>
       <c r="E541" s="9"/>
@@ -14572,31 +14598,41 @@
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="48">
+        <v>45131</v>
+      </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B542" s="20"/>
-      <c r="C542" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B542" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C542" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H542" s="39"/>
+      <c r="G542" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H542" s="39">
+        <v>1</v>
+      </c>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="K542" s="48">
+        <v>45146</v>
+      </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B543" s="20"/>
+      <c r="A543" s="40"/>
+      <c r="B543" s="20" t="s">
+        <v>376</v>
+      </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
@@ -14605,32 +14641,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H543" s="39"/>
+      <c r="H543" s="39">
+        <v>1</v>
+      </c>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="48">
+        <v>45161</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B544" s="20"/>
-      <c r="C544" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B544" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C544" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H544" s="39"/>
+      <c r="G544" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H544" s="39">
+        <v>6</v>
+      </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
+      <c r="K544" s="20" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14648,7 +14696,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14666,7 +14714,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14684,7 +14732,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14702,7 +14750,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14720,7 +14768,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14738,7 +14786,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14756,7 +14804,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14774,7 +14822,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14792,7 +14840,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -14810,7 +14858,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14828,7 +14876,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -14846,7 +14894,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -14864,7 +14912,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -14882,7 +14930,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -14900,7 +14948,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -14918,7 +14966,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -14936,7 +14984,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14954,7 +15002,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14972,7 +15020,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14990,7 +15038,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15008,7 +15056,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15026,7 +15074,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15044,7 +15092,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15061,7 +15109,9 @@
       <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+      <c r="A569" s="40">
+        <v>45931</v>
+      </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
@@ -15077,7 +15127,9 @@
       <c r="K569" s="20"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <v>45962</v>
+      </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
@@ -15093,7 +15145,9 @@
       <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40"/>
+      <c r="A571" s="40">
+        <v>45992</v>
+      </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
       <c r="D571" s="39"/>
@@ -15141,20 +15195,68 @@
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="41"/>
-      <c r="B574" s="15"/>
-      <c r="C574" s="42"/>
-      <c r="D574" s="43"/>
+      <c r="A574" s="40"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
       <c r="E574" s="9"/>
-      <c r="F574" s="15"/>
+      <c r="F574" s="20"/>
       <c r="G574" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H574" s="43"/>
+      <c r="H574" s="39"/>
       <c r="I574" s="9"/>
-      <c r="J574" s="12"/>
-      <c r="K574" s="15"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="40"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="40"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="41"/>
+      <c r="B577" s="15"/>
+      <c r="C577" s="42"/>
+      <c r="D577" s="43"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="15"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="43"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="12"/>
+      <c r="K577" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15265,14 +15367,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.8000000000000008E-2</v>
+        <v>0.15400000000000003</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>

--- a/REGULAR/CTO/BAYOT, ANISIA.xlsx
+++ b/REGULAR/CTO/BAYOT, ANISIA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="403">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1242,6 +1242,27 @@
   </si>
   <si>
     <t>12/06,07/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>UT(0-4-12)</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>UT(0-1-10)</t>
+  </si>
+  <si>
+    <t>UT(0-4-15)</t>
   </si>
 </sst>
 </file>
@@ -1942,8 +1963,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K578" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K578"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K585" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K585"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2272,12 +2293,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K578"/>
+  <dimension ref="A2:K585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A529" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A532" activePane="bottomLeft"/>
       <selection activeCell="E12" sqref="E12"/>
-      <selection pane="bottomLeft" activeCell="D544" sqref="D544"/>
+      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2465,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.123000000000104</v>
+        <v>66.038000000000125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2454,7 +2475,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>88.95799999999997</v>
+        <v>90.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14607,59 +14628,53 @@
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C542" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D542" s="39"/>
+        <v>384</v>
+      </c>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39">
+        <v>1</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H542" s="39">
-        <v>1</v>
-      </c>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
       <c r="K542" s="48">
-        <v>45146</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="C543" s="13"/>
-      <c r="D543" s="39"/>
+      <c r="D543" s="39">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
       <c r="G543" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H543" s="39">
-        <v>1</v>
-      </c>
+      <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="48">
-        <v>45161</v>
-      </c>
+      <c r="K543" s="48"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C544" s="13">
         <v>1.25</v>
@@ -14672,90 +14687,91 @@
         <v>1.25</v>
       </c>
       <c r="H544" s="39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20" t="s">
-        <v>391</v>
+      <c r="K544" s="48">
+        <v>45146</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C545" s="13">
-        <v>1.25</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C545" s="13"/>
       <c r="D545" s="39"/>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H545" s="39"/>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="39">
+        <v>1</v>
+      </c>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
       <c r="K545" s="48">
-        <v>45223</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C546" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D546" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="C546" s="13"/>
+      <c r="D546" s="39">
+        <v>0.14600000000000002</v>
+      </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H546" s="39">
-        <v>1</v>
-      </c>
+      <c r="G546" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="48">
-        <v>45240</v>
-      </c>
+      <c r="K546" s="48"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40"/>
+      <c r="A547" s="40">
+        <v>45170</v>
+      </c>
       <c r="B547" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C547" s="13"/>
-      <c r="D547" s="39">
-        <v>2</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D547" s="39"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13"/>
-      <c r="H547" s="39"/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H547" s="39">
+        <v>6</v>
+      </c>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="48" t="s">
-        <v>395</v>
+      <c r="K547" s="20" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B548" s="20"/>
+      <c r="A548" s="40"/>
+      <c r="B548" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="C548" s="13"/>
-      <c r="D548" s="39"/>
+      <c r="D548" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
       <c r="G548" s="13" t="str">
@@ -14769,29 +14785,37 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B549" s="20"/>
-      <c r="C549" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B549" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B550" s="20"/>
+      <c r="A550" s="40"/>
+      <c r="B550" s="20" t="s">
+        <v>399</v>
+      </c>
       <c r="C550" s="13"/>
-      <c r="D550" s="39"/>
+      <c r="D550" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="13" t="str">
@@ -14801,51 +14825,62 @@
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="48"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B551" s="20"/>
-      <c r="C551" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H551" s="39"/>
+      <c r="G551" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H551" s="39">
+        <v>1</v>
+      </c>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="48">
+        <v>45240</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B552" s="20"/>
+      <c r="A552" s="40"/>
+      <c r="B552" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C552" s="13"/>
-      <c r="D552" s="39"/>
+      <c r="D552" s="39">
+        <v>2</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G552" s="13"/>
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="48" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B553" s="20"/>
+      <c r="A553" s="40"/>
+      <c r="B553" s="20" t="s">
+        <v>398</v>
+      </c>
       <c r="C553" s="13"/>
-      <c r="D553" s="39"/>
+      <c r="D553" s="39">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
       <c r="G553" s="13" t="str">
@@ -14855,20 +14890,26 @@
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20"/>
+      <c r="K553" s="48"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B554" s="20"/>
-      <c r="C554" s="13"/>
-      <c r="D554" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B554" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D554" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G554" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
@@ -14876,8 +14917,8 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40">
-        <v>45474</v>
+      <c r="A555" s="49" t="s">
+        <v>396</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -14895,7 +14936,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -14913,7 +14954,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -14931,7 +14972,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -14949,7 +14990,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -14967,7 +15008,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -14985,7 +15026,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15003,7 +15044,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15021,7 +15062,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15039,7 +15080,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15057,7 +15098,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15075,7 +15116,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15093,7 +15134,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15111,7 +15152,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15129,7 +15170,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15147,7 +15188,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15165,7 +15206,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15183,7 +15224,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15200,7 +15241,9 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>45809</v>
+      </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -15216,7 +15259,9 @@
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <v>45839</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -15232,7 +15277,9 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <v>45870</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -15248,7 +15295,9 @@
       <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>45901</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -15264,7 +15313,9 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <v>45931</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -15280,20 +15331,136 @@
       <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="41"/>
-      <c r="B578" s="15"/>
-      <c r="C578" s="42"/>
-      <c r="D578" s="43"/>
+      <c r="A578" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39"/>
       <c r="E578" s="9"/>
-      <c r="F578" s="15"/>
+      <c r="F578" s="20"/>
       <c r="G578" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H578" s="43"/>
+      <c r="H578" s="39"/>
       <c r="I578" s="9"/>
-      <c r="J578" s="12"/>
-      <c r="K578" s="15"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="40"/>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="40"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="41"/>
+      <c r="B585" s="15"/>
+      <c r="C585" s="42"/>
+      <c r="D585" s="43"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="15"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="43"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="12"/>
+      <c r="K585" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15404,14 +15571,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.15400000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>

--- a/REGULAR/CTO/BAYOT, ANISIA.xlsx
+++ b/REGULAR/CTO/BAYOT, ANISIA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="410">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1263,6 +1263,27 @@
   </si>
   <si>
     <t>UT(0-4-15)</t>
+  </si>
+  <si>
+    <t>UT(1-0-19)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>4/11/2023 (5)</t>
+  </si>
+  <si>
+    <t>UT(0-1-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>UT(0-0-7)</t>
   </si>
 </sst>
 </file>
@@ -1963,8 +1984,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K585" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K585"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K590" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K590"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2293,12 +2314,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K585"/>
+  <dimension ref="A2:K590"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A532" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A523" activePane="bottomLeft"/>
       <selection activeCell="E12" sqref="E12"/>
-      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
+      <selection pane="bottomLeft" activeCell="E533" sqref="E533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2486,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.038000000000125</v>
+        <v>64.713000000000136</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14327,11 +14348,15 @@
       <c r="A529" s="40">
         <v>44927</v>
       </c>
-      <c r="B529" s="20"/>
+      <c r="B529" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="C529" s="13">
         <v>1.25</v>
       </c>
-      <c r="D529" s="39"/>
+      <c r="D529" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
       <c r="G529" s="13">
@@ -14370,43 +14395,41 @@
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C531" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D531" s="39"/>
+        <v>408</v>
+      </c>
+      <c r="C531" s="13"/>
+      <c r="D531" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H531" s="39">
-        <v>1</v>
-      </c>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="48">
-        <v>45005</v>
-      </c>
+      <c r="K531" s="20"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40"/>
+      <c r="A532" s="40">
+        <v>44986</v>
+      </c>
       <c r="B532" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C532" s="13"/>
+      <c r="C532" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D532" s="39"/>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G532" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H532" s="39">
         <v>1</v>
@@ -14414,25 +14437,21 @@
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
       <c r="K532" s="48">
-        <v>45009</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C533" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C533" s="13"/>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H533" s="39">
         <v>1</v>
@@ -14440,34 +14459,32 @@
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
       <c r="K533" s="48">
-        <v>45016</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
-        <v>47</v>
+        <v>407</v>
       </c>
       <c r="C534" s="13"/>
-      <c r="D534" s="39"/>
+      <c r="D534" s="39">
+        <v>1.2E-2</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
       <c r="G534" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H534" s="39">
-        <v>1</v>
-      </c>
+      <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="48">
-        <v>45027</v>
-      </c>
+      <c r="K534" s="48"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B535" s="20" t="s">
         <v>47</v>
@@ -14488,13 +14505,13 @@
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="48">
-        <v>45048</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C536" s="13"/>
       <c r="D536" s="39"/>
@@ -14505,39 +14522,37 @@
         <v/>
       </c>
       <c r="H536" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="48" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
-        <v>47</v>
+        <v>406</v>
       </c>
       <c r="C537" s="13"/>
-      <c r="D537" s="39"/>
+      <c r="D537" s="39">
+        <v>0.17700000000000002</v>
+      </c>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
       <c r="G537" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H537" s="39">
-        <v>1</v>
-      </c>
+      <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="48">
-        <v>45072</v>
-      </c>
+      <c r="K537" s="48"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B538" s="20" t="s">
         <v>47</v>
@@ -14558,39 +14573,35 @@
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
       <c r="K538" s="48">
-        <v>45096</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C539" s="13">
-        <v>1.25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C539" s="13"/>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G539" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H539" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="48">
-        <v>45110</v>
+      <c r="K539" s="48" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
-        <v>377</v>
+        <v>47</v>
       </c>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
@@ -14600,20 +14611,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H540" s="39"/>
+      <c r="H540" s="39">
+        <v>1</v>
+      </c>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
       <c r="K540" s="48">
-        <v>45126</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+      <c r="D541" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13" t="str">
@@ -14623,40 +14638,42 @@
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="48">
-        <v>45131</v>
-      </c>
+      <c r="K541" s="48"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="40"/>
+      <c r="A542" s="40">
+        <v>45078</v>
+      </c>
       <c r="B542" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C542" s="13"/>
-      <c r="D542" s="39">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C542" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H542" s="39"/>
+      <c r="G542" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H542" s="39">
+        <v>1</v>
+      </c>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
       <c r="K542" s="48">
-        <v>45121</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39">
-        <v>0.53100000000000003</v>
+        <v>1.04</v>
       </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
@@ -14671,7 +14688,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B544" s="20" t="s">
         <v>376</v>
@@ -14692,13 +14709,13 @@
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="48">
-        <v>45146</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
@@ -14708,24 +14725,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H545" s="39">
-        <v>1</v>
-      </c>
+      <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
       <c r="K545" s="48">
-        <v>45161</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C546" s="13"/>
-      <c r="D546" s="39">
-        <v>0.14600000000000002</v>
-      </c>
+      <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
       <c r="G546" s="13" t="str">
@@ -14735,42 +14748,40 @@
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="48"/>
+      <c r="K546" s="48">
+        <v>45131</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C547" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D547" s="39"/>
+        <v>384</v>
+      </c>
+      <c r="C547" s="13"/>
+      <c r="D547" s="39">
+        <v>1</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H547" s="39">
-        <v>6</v>
-      </c>
+      <c r="G547" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20" t="s">
-        <v>391</v>
+      <c r="K547" s="48">
+        <v>45121</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39">
-        <v>3.1000000000000014E-2</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
@@ -14781,14 +14792,14 @@
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="48"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B549" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C549" s="13">
         <v>1.25</v>
@@ -14800,86 +14811,91 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H549" s="39"/>
+      <c r="H549" s="39">
+        <v>1</v>
+      </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
       <c r="K549" s="48">
-        <v>45223</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C550" s="13"/>
-      <c r="D550" s="39">
-        <v>1.7000000000000001E-2</v>
-      </c>
+      <c r="D550" s="39"/>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H550" s="39"/>
+      <c r="H550" s="39">
+        <v>1</v>
+      </c>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="48"/>
+      <c r="K550" s="48">
+        <v>45161</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C551" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D551" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="C551" s="13"/>
+      <c r="D551" s="39">
+        <v>0.14600000000000002</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H551" s="39">
-        <v>1</v>
-      </c>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="48">
-        <v>45240</v>
-      </c>
+      <c r="K551" s="48"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+      <c r="A552" s="40">
+        <v>45170</v>
+      </c>
       <c r="B552" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C552" s="13"/>
-      <c r="D552" s="39">
-        <v>2</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13"/>
-      <c r="H552" s="39"/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H552" s="39">
+        <v>6</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="48" t="s">
-        <v>395</v>
+      <c r="K552" s="20" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39">
-        <v>0.52500000000000002</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
@@ -14890,21 +14906,19 @@
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="48"/>
+      <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C554" s="13">
         <v>1.25</v>
       </c>
-      <c r="D554" s="39">
-        <v>8.500000000000002E-2</v>
-      </c>
+      <c r="D554" s="39"/>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="13">
@@ -14914,15 +14928,19 @@
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
+      <c r="K554" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="B555" s="20"/>
+      <c r="A555" s="40"/>
+      <c r="B555" s="20" t="s">
+        <v>399</v>
+      </c>
       <c r="C555" s="13"/>
-      <c r="D555" s="39"/>
+      <c r="D555" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
       <c r="G555" s="13" t="str">
@@ -14932,51 +14950,62 @@
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20"/>
+      <c r="K555" s="48"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B556" s="20"/>
-      <c r="C556" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B556" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C556" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D556" s="39"/>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H556" s="39"/>
+      <c r="G556" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H556" s="39">
+        <v>1</v>
+      </c>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20"/>
+      <c r="K556" s="48">
+        <v>45240</v>
+      </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B557" s="20"/>
+      <c r="A557" s="40"/>
+      <c r="B557" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C557" s="13"/>
-      <c r="D557" s="39"/>
+      <c r="D557" s="39">
+        <v>2</v>
+      </c>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G557" s="13"/>
       <c r="H557" s="39"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="20"/>
+      <c r="K557" s="48" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B558" s="20"/>
+      <c r="A558" s="40"/>
+      <c r="B558" s="20" t="s">
+        <v>398</v>
+      </c>
       <c r="C558" s="13"/>
-      <c r="D558" s="39"/>
+      <c r="D558" s="39">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
       <c r="G558" s="13" t="str">
@@ -14986,20 +15015,26 @@
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="48"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B559" s="20"/>
-      <c r="C559" s="13"/>
-      <c r="D559" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B559" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D559" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
@@ -15007,8 +15042,8 @@
       <c r="K559" s="20"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40">
-        <v>45413</v>
+      <c r="A560" s="49" t="s">
+        <v>396</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15026,7 +15061,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15044,7 +15079,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15062,7 +15097,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15080,7 +15115,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15098,7 +15133,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15116,7 +15151,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15134,7 +15169,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15152,7 +15187,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15170,7 +15205,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15188,7 +15223,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15206,7 +15241,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15224,7 +15259,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15242,7 +15277,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15260,7 +15295,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15278,7 +15313,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15296,7 +15331,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15314,7 +15349,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15332,7 +15367,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15350,7 +15385,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15367,7 +15402,9 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40"/>
+      <c r="A580" s="40">
+        <v>45870</v>
+      </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -15383,7 +15420,9 @@
       <c r="K580" s="20"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <v>45901</v>
+      </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
@@ -15399,7 +15438,9 @@
       <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
+      <c r="A582" s="40">
+        <v>45931</v>
+      </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -15415,7 +15456,9 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40"/>
+      <c r="A583" s="40">
+        <v>45962</v>
+      </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
@@ -15431,7 +15474,9 @@
       <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <v>45992</v>
+      </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
@@ -15447,20 +15492,100 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="41"/>
-      <c r="B585" s="15"/>
-      <c r="C585" s="42"/>
-      <c r="D585" s="43"/>
+      <c r="A585" s="40"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
       <c r="E585" s="9"/>
-      <c r="F585" s="15"/>
+      <c r="F585" s="20"/>
       <c r="G585" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H585" s="43"/>
+      <c r="H585" s="39"/>
       <c r="I585" s="9"/>
-      <c r="J585" s="12"/>
-      <c r="K585" s="15"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="40"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="40"/>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="41"/>
+      <c r="B590" s="15"/>
+      <c r="C590" s="42"/>
+      <c r="D590" s="43"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="15"/>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="43"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="12"/>
+      <c r="K590" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15570,15 +15695,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.53100000000000003</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>
